--- a/wwwroot/files/Testes Admissão - Dados.xlsx
+++ b/wwwroot/files/Testes Admissão - Dados.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Quantidade</t>
   </si>
@@ -69,13 +69,19 @@
   </si>
   <si>
     <t>ValorUnitario</t>
+  </si>
+  <si>
+    <t>Teste de Descrição</t>
+  </si>
+  <si>
+    <t>18.10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,22 +89,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor theme="8" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -106,56 +114,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="8" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="8" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="8" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="8" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="8" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="8" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="8" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="8" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -178,8 +144,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:D10" totalsRowShown="0">
-  <autoFilter ref="A1:D10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:D11" totalsRowShown="0">
+  <autoFilter ref="A1:D11"/>
   <tableColumns count="4">
     <tableColumn id="1" name="DtEntrega" dataDxfId="0"/>
     <tableColumn id="2" name="NomeProduto"/>
@@ -487,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,286 +603,34 @@
       <c r="C10">
         <v>9</v>
       </c>
-      <c r="D10">
-        <v>18.100000000000001</v>
+      <c r="D10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>43941</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="4">
-        <v>10.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>43942</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="6">
-        <v>2</v>
-      </c>
-      <c r="D12" s="7">
-        <v>11.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>43943</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="3">
-        <v>3</v>
-      </c>
-      <c r="D13" s="4">
-        <v>12.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>43944</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="6">
-        <v>4</v>
-      </c>
-      <c r="D14" s="7">
-        <v>13.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>43945</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="3">
-        <v>5</v>
-      </c>
-      <c r="D15" s="4">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>43946</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="6">
-        <v>6</v>
-      </c>
-      <c r="D16" s="7">
-        <v>15.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>43947</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="3">
-        <v>7</v>
-      </c>
-      <c r="D17" s="4">
-        <v>16.100000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>43948</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="6">
-        <v>8</v>
-      </c>
-      <c r="D18" s="7">
-        <v>17.100000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>43949</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="3">
-        <v>9</v>
-      </c>
-      <c r="D19" s="4">
-        <v>18.100000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>43941</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="3">
-        <v>1</v>
-      </c>
-      <c r="D20" s="4">
-        <v>10.1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>43942</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="6">
-        <v>2</v>
-      </c>
-      <c r="D21" s="7">
-        <v>11.1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>43943</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="3">
-        <v>3</v>
-      </c>
-      <c r="D22" s="4">
-        <v>12.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>43944</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="6">
-        <v>4</v>
-      </c>
-      <c r="D23" s="7">
-        <v>13.1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>43945</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="3">
-        <v>5</v>
-      </c>
-      <c r="D24" s="4">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <v>43946</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="6">
-        <v>6</v>
-      </c>
-      <c r="D25" s="7">
-        <v>15.1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>43947</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="3">
-        <v>7</v>
-      </c>
-      <c r="D26" s="4">
-        <v>16.100000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>43948</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="6">
-        <v>8</v>
-      </c>
-      <c r="D27" s="7">
-        <v>17.100000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>43949</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="3">
-        <v>9</v>
-      </c>
-      <c r="D28" s="4">
-        <v>18.100000000000001</v>
+      <c r="A11" s="1">
+        <v>44160</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E5CA0669F0B19A4C97051E69122EADC1" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd365c4996e6dffd6ef2f6d3c463c1fc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a42bd279-a8da-4671-9755-026c37bf28de" xmlns:ns4="a1dd4b54-d447-4676-85ec-4540d2ef041e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f5ca27c8f5012bce7bb293e4a9942d2e" ns3:_="" ns4:_="">
     <xsd:import namespace="a42bd279-a8da-4671-9755-026c37bf28de"/>
@@ -1139,32 +853,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DCE3480-CA1C-4DE0-BECB-9FFCA09FCD0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a42bd279-a8da-4671-9755-026c37bf28de"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a1dd4b54-d447-4676-85ec-4540d2ef041e"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AFCA3A3-BEF3-4051-AABA-F4D789295DF5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABA7A362-D440-48BF-9F88-999E2A3BA1B0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1181,4 +885,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DCE3480-CA1C-4DE0-BECB-9FFCA09FCD0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a42bd279-a8da-4671-9755-026c37bf28de"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a1dd4b54-d447-4676-85ec-4540d2ef041e"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AFCA3A3-BEF3-4051-AABA-F4D789295DF5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>